--- a/data/processed_parser/extracted_metadata.xlsx
+++ b/data/processed_parser/extracted_metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>EXAMEN</t>
+          <t>Examen</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,10 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Panel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Origine du prélèvement</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type de prélèvement</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qualité du séquencage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>% de cellules</t>
         </is>
@@ -468,10 +483,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>OST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CMP</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Adénocarcinome pulmonaire</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -490,10 +520,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>CurePath</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PF1 oncocytaire</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -512,10 +557,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>CMP</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Métastase hépatique d’un adénocarcinome mammaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -534,10 +594,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CurePath</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PF1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -556,10 +631,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>HUB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tumeur de la granulosa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -578,10 +668,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CHP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CurePath</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>carcinome urothélial invasif</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -600,10 +705,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>OST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>CurePath</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Carcinome non à petites cellules NOS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -622,10 +742,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Curepath</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adénocarcinome colorectal métastatique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -644,10 +779,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Centre Hospitalier de Mouscron</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -666,10 +816,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Centre Hospitalier de Mouscron</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -688,10 +853,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Erasme</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PF2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -710,10 +890,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>CHP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>CMP Pathology</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>masse gastrique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -732,10 +927,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>OST</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Curepath</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adénocarcinome TTF1+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>10</t>
         </is>
